--- a/测试用例/Wap端回归验证用例.xlsx
+++ b/测试用例/Wap端回归验证用例.xlsx
@@ -368,8 +368,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -408,14 +408,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,14 +423,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,16 +437,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,15 +460,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,9 +483,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -520,6 +513,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -528,16 +528,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,127 +564,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,55 +738,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,6 +810,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -851,26 +881,20 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,30 +907,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -915,145 +915,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2131,8 +2131,8 @@
   <sheetPr/>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2224,7 +2224,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="43.2" spans="1:10">

--- a/测试用例/Wap端回归验证用例.xlsx
+++ b/测试用例/Wap端回归验证用例.xlsx
@@ -2131,8 +2131,8 @@
   <sheetPr/>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2224,7 +2224,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="1" ht="43.2" spans="1:10">
@@ -2296,7 +2296,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="43.2" spans="1:10">
@@ -2320,7 +2320,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="15.6" spans="1:10">
@@ -2344,7 +2344,7 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="15.6" spans="1:10">
@@ -2368,7 +2368,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="15.6" spans="1:10">
@@ -2392,7 +2392,7 @@
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="15.6" spans="1:10">
@@ -2416,7 +2416,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="15.6" spans="1:10">
@@ -2440,7 +2440,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="15.6" spans="1:10">
@@ -2464,7 +2464,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="15.6" spans="1:10">
@@ -2488,7 +2488,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="15.6" spans="1:10">
@@ -2512,7 +2512,7 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="28.8" spans="1:10">
@@ -2536,7 +2536,7 @@
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="15.6" spans="1:10">
@@ -2560,7 +2560,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="15.6" spans="1:10">
@@ -2584,7 +2584,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="15.6" spans="1:10">
@@ -2608,7 +2608,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
       <c r="J19" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="43.2" spans="1:10">
@@ -2632,7 +2632,7 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="43.2" spans="1:10">
@@ -2656,7 +2656,7 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="28.8" spans="1:10">
@@ -2680,7 +2680,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="57.6" spans="1:10">
@@ -2704,7 +2704,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="72" spans="1:10">
@@ -2728,7 +2728,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="15.6" spans="1:10">

--- a/测试用例/Wap端回归验证用例.xlsx
+++ b/测试用例/Wap端回归验证用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9924" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wap-登录" sheetId="1" r:id="rId1"/>
@@ -368,10 +368,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -408,12 +408,49 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -422,15 +459,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,25 +489,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -483,7 +514,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,45 +528,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -564,97 +564,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,78 +739,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,6 +810,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -840,6 +875,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -859,51 +903,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,10 +915,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -927,133 +927,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2132,7 +2132,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2296,7 +2296,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="1" ht="43.2" spans="1:10">
@@ -2319,8 +2319,8 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
-      <c r="J7" s="14">
-        <v>0</v>
+      <c r="J7" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="1" ht="15.6" spans="1:10">
@@ -2344,7 +2344,7 @@
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
       <c r="J8" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="1" ht="15.6" spans="1:10">
@@ -2367,8 +2367,8 @@
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
-      <c r="J9" s="14">
-        <v>0</v>
+      <c r="J9" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="1" ht="15.6" spans="1:10">
@@ -2392,7 +2392,7 @@
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="1" ht="15.6" spans="1:10">
@@ -2415,8 +2415,8 @@
       <c r="G11" s="21"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
-      <c r="J11" s="14">
-        <v>0</v>
+      <c r="J11" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="1" ht="15.6" spans="1:10">
@@ -2440,7 +2440,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="1" ht="15.6" spans="1:10">
@@ -2463,8 +2463,8 @@
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
-      <c r="J13" s="14">
-        <v>0</v>
+      <c r="J13" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="1" ht="15.6" spans="1:10">
@@ -2488,7 +2488,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
       <c r="J14" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="1" ht="15.6" spans="1:10">
@@ -2511,8 +2511,8 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
-      <c r="J15" s="14">
-        <v>0</v>
+      <c r="J15" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="1" ht="28.8" spans="1:10">
@@ -2536,7 +2536,7 @@
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="15.6" spans="1:10">
@@ -2559,8 +2559,8 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
-      <c r="J17" s="14">
-        <v>0</v>
+      <c r="J17" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="15.6" spans="1:10">
@@ -2584,7 +2584,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="15.6" spans="1:10">
@@ -2607,8 +2607,8 @@
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
-      <c r="J19" s="14">
-        <v>0</v>
+      <c r="J19" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="43.2" spans="1:10">
@@ -2632,7 +2632,7 @@
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
       <c r="J20" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="43.2" spans="1:10">
@@ -2655,8 +2655,8 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="14">
-        <v>0</v>
+      <c r="J21" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="28.8" spans="1:10">
@@ -2680,7 +2680,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="57.6" spans="1:10">
@@ -2703,8 +2703,8 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="14">
-        <v>0</v>
+      <c r="J23" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="72" spans="1:10">
@@ -2728,7 +2728,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="15.6" spans="1:10">
